--- a/cd/doc/formaty_plikow_xls_do_importu_danych/przedmioty.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/przedmioty.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Skrót</t>
   </si>
@@ -178,13 +178,43 @@
   </si>
   <si>
     <t>eta</t>
+  </si>
+  <si>
+    <t>Dodatkowy opis</t>
+  </si>
+  <si>
+    <t>Słowa kluczowe</t>
+  </si>
+  <si>
+    <t>#kierunek xyz</t>
+  </si>
+  <si>
+    <t>#kierunek xyz, pns</t>
+  </si>
+  <si>
+    <t>#kierunek pns</t>
+  </si>
+  <si>
+    <t>#Szymczak #Janicki</t>
+  </si>
+  <si>
+    <t>#Szymczak</t>
+  </si>
+  <si>
+    <t>#WAKAT!</t>
+  </si>
+  <si>
+    <t>Program wstawia lub aktualizuje rekordy, w zależności od tego, czy rekord o podanym skrócie istnieje.</t>
+  </si>
+  <si>
+    <t>Pamiętaj, by raz użytego skrótu nie zmieniać, ponieważ spowoduje to zdublowanie danych.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -214,8 +244,16 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +272,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -243,53 +292,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -302,8 +314,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Dobre" xfId="2" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 3" xfId="1"/>
   </cellStyles>
@@ -604,1018 +620,1109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:O219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F2" sqref="F2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="11"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="13"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="13"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="13"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="13"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="11"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="13"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="7"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="12"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="12"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="11"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="12"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="11"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="13"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="7"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="13"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="7"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="13"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="7"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="11"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="5"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="12"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="6"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="11"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="5"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="11"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="11"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="5"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="12"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="6"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="13"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="13"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="11"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="5"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="11"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="5"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="12"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
-      <c r="B96" s="11"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="5"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="13"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="7"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="10"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="11"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
-      <c r="B100" s="11"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="9"/>
-      <c r="B101" s="11"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="5"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="9"/>
-      <c r="B102" s="13"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="7"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
-      <c r="B103" s="12"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="6"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="12"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="6"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
-      <c r="B105" s="10"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
-      <c r="B106" s="10"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="9"/>
-      <c r="B107" s="11"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="9"/>
-      <c r="B108" s="11"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="5"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="4"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="9"/>
-      <c r="B110" s="11"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="5"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="9"/>
-      <c r="B111" s="13"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="7"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="9"/>
-      <c r="B112" s="12"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="6"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
-      <c r="B113" s="11"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="11"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="5"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="9"/>
-      <c r="B115" s="11"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="5"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="9"/>
-      <c r="B116" s="13"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="7"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="9"/>
-      <c r="B117" s="11"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="5"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="9"/>
-      <c r="B118" s="11"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="5"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="9"/>
-      <c r="B119" s="13"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="7"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="9"/>
-      <c r="B120" s="12"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="6"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="9"/>
-      <c r="B121" s="11"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="5"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="9"/>
-      <c r="B122" s="11"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="5"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
-      <c r="B123" s="10"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="4"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
-      <c r="B124" s="11"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="9"/>
-      <c r="B125" s="12"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="6"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="9"/>
-      <c r="B126" s="12"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="6"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="9"/>
-      <c r="B127" s="13"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="7"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="9"/>
-      <c r="B128" s="13"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="7"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="9"/>
-      <c r="B129" s="13"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="7"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="9"/>
-      <c r="B130" s="13"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="9"/>
-      <c r="B131" s="12"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="6"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="9"/>
-      <c r="B132" s="13"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="7"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="9"/>
-      <c r="B133" s="13"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="7"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="9"/>
-      <c r="B134" s="12"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="6"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="9"/>
-      <c r="B135" s="13"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="7"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="9"/>
-      <c r="B136" s="13"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="7"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="9"/>
-      <c r="B137" s="12"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="6"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="9"/>
-      <c r="B138" s="13"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="7"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="9"/>
-      <c r="B139" s="12"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="6"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="9"/>
-      <c r="B140" s="10"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="4"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="9"/>
-      <c r="B141" s="12"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="6"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="9"/>
-      <c r="B142" s="10"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="4"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="9"/>
-      <c r="B143" s="11"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="5"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="9"/>
-      <c r="B144" s="11"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="5"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="9"/>
-      <c r="B145" s="12"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="6"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="9"/>
-      <c r="B146" s="11"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="5"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="9"/>
-      <c r="B147" s="11"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="5"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="9"/>
-      <c r="B148" s="11"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="5"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="9"/>
-      <c r="B149" s="11"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="5"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="9"/>
-      <c r="B150" s="11"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="5"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="9"/>
-      <c r="B151" s="12"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="6"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="9"/>
-      <c r="B152" s="12"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="6"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="9"/>
-      <c r="B153" s="12"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="6"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="9"/>
-      <c r="B154" s="11"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="5"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="9"/>
-      <c r="B155" s="11"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="5"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="9"/>
-      <c r="B156" s="11"/>
+      <c r="A156" s="3"/>
+      <c r="B156" s="5"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="9"/>
-      <c r="B157" s="13"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="7"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="9"/>
-      <c r="B158" s="10"/>
+      <c r="A158" s="3"/>
+      <c r="B158" s="4"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="9"/>
-      <c r="B159" s="12"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="6"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="9"/>
-      <c r="B160" s="13"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="7"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="9"/>
-      <c r="B161" s="10"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="4"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="9"/>
-      <c r="B162" s="11"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="5"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="9"/>
-      <c r="B163" s="12"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="6"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="9"/>
-      <c r="B164" s="13"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="7"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="9"/>
-      <c r="B165" s="11"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="5"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="9"/>
-      <c r="B166" s="11"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="5"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="9"/>
-      <c r="B167" s="11"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="5"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="9"/>
-      <c r="B168" s="11"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="5"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="9"/>
-      <c r="B169" s="14"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="8"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="9"/>
-      <c r="B170" s="14"/>
+      <c r="A170" s="3"/>
+      <c r="B170" s="8"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="9"/>
-      <c r="B171" s="12"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="6"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="9"/>
-      <c r="B172" s="12"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="6"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="9"/>
-      <c r="B173" s="12"/>
+      <c r="A173" s="3"/>
+      <c r="B173" s="6"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="9"/>
-      <c r="B174" s="12"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="6"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="9"/>
-      <c r="B175" s="11"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="5"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="9"/>
-      <c r="B176" s="11"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="5"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="9"/>
-      <c r="B177" s="13"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="7"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="9"/>
-      <c r="B178" s="12"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="6"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="9"/>
-      <c r="B179" s="12"/>
+      <c r="A179" s="3"/>
+      <c r="B179" s="6"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="9"/>
-      <c r="B180" s="11"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="5"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="9"/>
-      <c r="B181" s="11"/>
+      <c r="A181" s="3"/>
+      <c r="B181" s="5"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="9"/>
-      <c r="B182" s="12"/>
+      <c r="A182" s="3"/>
+      <c r="B182" s="6"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="9"/>
-      <c r="B183" s="11"/>
+      <c r="A183" s="3"/>
+      <c r="B183" s="5"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="9"/>
-      <c r="B184" s="11"/>
+      <c r="A184" s="3"/>
+      <c r="B184" s="5"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="9"/>
-      <c r="B185" s="11"/>
+      <c r="A185" s="3"/>
+      <c r="B185" s="5"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="9"/>
-      <c r="B186" s="11"/>
+      <c r="A186" s="3"/>
+      <c r="B186" s="5"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="9"/>
-      <c r="B187" s="11"/>
+      <c r="A187" s="3"/>
+      <c r="B187" s="5"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="9"/>
-      <c r="B188" s="10"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="4"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="9"/>
-      <c r="B189" s="11"/>
+      <c r="A189" s="3"/>
+      <c r="B189" s="5"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="9"/>
-      <c r="B190" s="11"/>
+      <c r="A190" s="3"/>
+      <c r="B190" s="5"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="9"/>
-      <c r="B191" s="11"/>
+      <c r="A191" s="3"/>
+      <c r="B191" s="5"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="9"/>
-      <c r="B192" s="12"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="6"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="9"/>
-      <c r="B193" s="11"/>
+      <c r="A193" s="3"/>
+      <c r="B193" s="5"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="9"/>
-      <c r="B194" s="12"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="6"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="9"/>
-      <c r="B195" s="12"/>
+      <c r="A195" s="3"/>
+      <c r="B195" s="6"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="9"/>
-      <c r="B196" s="12"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="6"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="9"/>
-      <c r="B197" s="13"/>
+      <c r="A197" s="3"/>
+      <c r="B197" s="7"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="9"/>
-      <c r="B198" s="11"/>
+      <c r="A198" s="3"/>
+      <c r="B198" s="5"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="9"/>
-      <c r="B199" s="11"/>
+      <c r="A199" s="3"/>
+      <c r="B199" s="5"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="9"/>
-      <c r="B200" s="11"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="5"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="9"/>
-      <c r="B201" s="12"/>
+      <c r="A201" s="3"/>
+      <c r="B201" s="6"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="9"/>
-      <c r="B202" s="12"/>
+      <c r="A202" s="3"/>
+      <c r="B202" s="6"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="9"/>
-      <c r="B203" s="14"/>
+      <c r="A203" s="3"/>
+      <c r="B203" s="8"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="9"/>
-      <c r="B205" s="9"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="9"/>
-      <c r="B206" s="9"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="9"/>
-      <c r="B207" s="9"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="9"/>
-      <c r="B208" s="9"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="9"/>
-      <c r="B209" s="9"/>
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="9"/>
-      <c r="B210" s="9"/>
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="9"/>
-      <c r="B211" s="9"/>
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="9"/>
-      <c r="B212" s="9"/>
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="9"/>
-      <c r="B213" s="9"/>
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="9"/>
-      <c r="B214" s="9"/>
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="9"/>
-      <c r="B215" s="9"/>
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="9"/>
-      <c r="B216" s="9"/>
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="9"/>
-      <c r="B217" s="9"/>
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="9"/>
-      <c r="B218" s="9"/>
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="9"/>
-      <c r="B219" s="9"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/przedmioty.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/przedmioty.xlsx
@@ -180,9 +180,6 @@
     <t>eta</t>
   </si>
   <si>
-    <t>Dodatkowy opis</t>
-  </si>
-  <si>
     <t>Słowa kluczowe</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>#kierunek pns</t>
   </si>
   <si>
-    <t>#Szymczak #Janicki</t>
-  </si>
-  <si>
     <t>#Szymczak</t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t>Pamiętaj, by raz użytego skrótu nie zmieniać, ponieważ spowoduje to zdublowanie danych.</t>
+  </si>
+  <si>
+    <t>Kierunki</t>
+  </si>
+  <si>
+    <t>Możesz tu również wpisać nazwiska wykładowców #Szymczak #Janicki</t>
   </si>
 </sst>
 </file>
@@ -623,14 +623,14 @@
   <dimension ref="A1:O219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:O3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -642,10 +642,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E1" s="2"/>
     </row>
@@ -660,7 +660,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="2"/>
       <c r="F2" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -683,7 +683,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="2"/>
       <c r="F3" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -735,9 +735,11 @@
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -747,9 +749,11 @@
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -759,9 +763,8 @@
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>56</v>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -771,9 +774,8 @@
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>57</v>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -783,9 +785,8 @@
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>57</v>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -796,7 +797,6 @@
         <v>22</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -805,9 +805,11 @@
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -847,9 +849,6 @@
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -859,10 +858,6 @@
       <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -872,7 +867,6 @@
         <v>35</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -902,9 +896,6 @@
         <v>40</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/przedmioty.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/przedmioty.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>Skrót</t>
   </si>
@@ -208,13 +208,19 @@
   </si>
   <si>
     <t>Możesz tu również wpisać nazwiska wykładowców #Szymczak #Janicki</t>
+  </si>
+  <si>
+    <t>Integration Id</t>
+  </si>
+  <si>
+    <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -252,8 +258,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +295,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -298,7 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -317,6 +335,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dobre" xfId="2" builtinId="26"/>
@@ -620,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O219"/>
+  <dimension ref="A1:P219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -631,10 +650,10 @@
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.28515625" customWidth="1"/>
     <col min="3" max="3" width="50.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -647,9 +666,12 @@
       <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="E1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -658,11 +680,11 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -671,8 +693,9 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -681,11 +704,11 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -694,8 +717,9 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -704,9 +728,10 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E4" s="9"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
@@ -715,9 +740,22 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E5" s="9"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -726,9 +764,10 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E6" s="9"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -741,8 +780,9 @@
       <c r="D7" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -755,8 +795,9 @@
       <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -767,7 +808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -778,7 +819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -789,7 +830,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -798,7 +839,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -811,8 +852,9 @@
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -821,8 +863,9 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -831,8 +874,9 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -841,8 +885,9 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -850,8 +895,9 @@
         <v>31</v>
       </c>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -859,7 +905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -868,7 +914,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -877,8 +923,9 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -887,8 +934,9 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
@@ -897,7 +945,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -906,8 +954,9 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
@@ -916,8 +965,9 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
@@ -926,8 +976,9 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>47</v>
       </c>
@@ -936,8 +987,9 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
@@ -946,24 +998,25 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
     </row>

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/przedmioty.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/przedmioty.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Skrót</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego.</t>
+  </si>
+  <si>
+    <t>Jednostka organizacyjna</t>
+  </si>
+  <si>
+    <t>W polu Jednostka organizacyjna wpisz nazwę Uczelni lub nazwę Wydziału lub nazwę instytutu. Pole może pozostać puste.</t>
   </si>
 </sst>
 </file>
@@ -642,7 +648,7 @@
   <dimension ref="A1:P219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -651,6 +657,7 @@
     <col min="2" max="2" width="60.28515625" customWidth="1"/>
     <col min="3" max="3" width="50.5703125" customWidth="1"/>
     <col min="4" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -669,7 +676,9 @@
       <c r="E1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -755,7 +764,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -766,6 +775,9 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="2"/>
+      <c r="G6" s="11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
